--- a/Summaries/Paper + Book Summaries.xlsx
+++ b/Summaries/Paper + Book Summaries.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/Comprehensive-Exam-Notes/Summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814C33D4-0904-C847-AD6A-9815410AE58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43563994-1E9C-DF48-A438-494D1EAD34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scaling Fisheries" sheetId="1" r:id="rId1"/>
     <sheet name="Groundfish Biol + Ecol Papers" sheetId="2" r:id="rId2"/>
-    <sheet name="Growth Papers" sheetId="3" r:id="rId3"/>
-    <sheet name="Selectivity Papers" sheetId="4" r:id="rId4"/>
-    <sheet name="Composition Data Papers" sheetId="5" r:id="rId5"/>
-    <sheet name="Spatial Papers" sheetId="6" r:id="rId6"/>
-    <sheet name="Harvest + Reference Pt Papers" sheetId="7" r:id="rId7"/>
+    <sheet name="Pcod Stock Structure" sheetId="3" r:id="rId3"/>
+    <sheet name="Spatial Modelling" sheetId="6" r:id="rId4"/>
+    <sheet name="HCR" sheetId="7" r:id="rId5"/>
+    <sheet name="Reference Points" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
   <si>
     <t>Section</t>
   </si>
@@ -1212,12 +1211,60 @@
 '- Sex-ratios can change - especially at the inital ages as well (i think shown for herring or capelin in Newfoundland). More work needs to be done to icnorparote these effects in that area. 
 '- Given changes in length-at-age, fecundity at age and length likely also changes simultaneously - more conservative measures of reference points might be neded given recent high recruitment events and prevailing environmental conditions.</t>
   </si>
+  <si>
+    <t>Spies et al. (2022) Genomic differentiation in Pacific cod using Pool-Seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevance </t>
+  </si>
+  <si>
+    <t>- To look a genomic differnetation on a population genomics scale among EBS, AI, and WA spawning populations in Pcod, and identify drivers of differentiation</t>
+  </si>
+  <si>
+    <t>- Used Pool-Seq and a bunch of genetic techinques that I'm not all too faimilar with. 
+'- Also used Fst and absolute divergence indicators to detect whether there was genetic differentiation at speciefic locations of the genome. Fst = relative divergence could be due to lower within group genetic variation rather than divergence - whereas divergence is better measured with absolute divergence.
+'- Annotated parts of the genome to understand what genes they were differntiated and the function of those genes. 
+'- Correlated some of the Fst metrics against envrionmetanl covariates (temperature, salinity, veloctiy and chlorophyl). 
+'- Compared regions of the genome against EBS and AI, and EBS against WA. 
+'- Evaluated optical water detph (light penetration) between AI and EBS, because there the genomic regions identified were often assoicated with vision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Regions of differentiation along the genome that are significant are called islands of divergence - this can be indicative of local adaptation for a species like Pcod that are in proximate locations. 
+'- These islands of differnetiation can arise due to hitchhiking, background selection, and chromosomal rearragenements (background selection = removal of deletious traits, hitchiking = impacted region impacts other linked regions, and chromsomal rearrangements = inversions). 
+'- Islands of differentatiation can also arise due to very strong selection processes - this process is often a tradeoff between migration-selection, wherein if the local adaptation and selection is stronger, the effects of gene flow are less important. 
+'- Selection and local adaptation in connected populations are important to understand because these populations are managed as their own populations units (i.e., stock structure). 
+'- Pacific cod exhibit isolation by distance selection, and there is thought to be 3 groups: 1) EBS, 2) AI, and 3) GOA. The GOA group is potenitally further differentiated into the eastern and western GOA subpopulations. 
+'- Adatpative divergence and genetic differentiation between the EBS and AI is likely due to differences in environment. In the EBS, it's more driven by ice extent dynamics, where the species compositions are often due to this, whereas in the AI, its more driven by currents, velocities, and passes altering the species composition there as well as light levels. This can lead to Pcod populations being more locally adpated to these condtions and feeding on these areas (e.g., Pcod in AI = more Atka mackerel, in EBS = more pollock). 
+'- In the AI, there is a strong abrupt shift in physical environment - west of Samalga Pass, there is warm nutrient water from the AK Coastal current, whereas in the east has more nutritent rich cold water.
+'- The southern populations of Pacific cod seem to be more related to Atlatnic cod due to divergence from the formation of the Bering Land Bridge.
+'- Recruitment and flow are important factors in Pacific cod recruitment, which could be a factor resulting in genetic differentiation between AI and EBS.
+'- Pools of the population generally differenitated based on lognitude - groups in the AI were more clustered with each other than Bering Sea, and there was distinct differnitaiton between the AK stocks and the WA stock. 
+'- Several regions of islands of differentiation were dtected between the EBS, AI, and WA, where Fst was way higher for allopatric populations - unsurprisingly. 
+'- The differentiation in some of the linkage regions were attributed to differentiation in vision related genes. 
+'- In the EBS and AI comparisons, the most significant correlates along some of the linkage groups were due to differences in velcotity and salinity. For EBS vs AI, this was salinity, velocity, chlorophyll, and then temperature.
+'-  The differentiation in vision related genes could be due to changes in light penetration - light penetration is way lower for the EBS than in the AI especially at 70m, and there is also some light breakage along Samalga Pass (darker in east than west). 
+'- The limited number of islands of divergence suggest a migration-selection balance, wherein the selection for traits for local adaptation are actually greater than gene flow (it does happen), resulting in divergence in those regions. (high Fst and elevated aboslute divergence). 
+'- There was high divergence between EBS and WA, but not EBS and AI along some distinct regions, consistent with the theory that gene flow acts to homogenize allele frequency except for regions greatly impacted by selection. 
+'- The islands of divergence in EBS-AI were also detected in EBS-WA suggesting that the visual genes are improtant for cod in terms of selection. 
+'- Correlates of velocity and salinty with regions of divergence related to vision are not surprising and these visual genes have been found to improtant for Atlantic cod. The selection for these genes are likley due to local adaptation wherien the EBS is darker than the AI. Also can be due to a geographic break along Samalga Pass where the east is dominated by chlorphyll coastal water whereas the west is more coastla nutrient clear rich water. Nonetheless, there appears to be some low level of gene flow among these populations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Pacific cod exhibit stock structure between BS, AI, eastern GOA, and western GOA, and WA.
+'- Some of these differences appear to be attributed to geogrpahic reasons as well as currents. Namely the islands of diffferentiation were related to vision and EBS tends to be darker more driven by ice dynamics, while AI is genearlly more clear although with some influence of currents and passes. (east of Samalga Pass is darked with more chlorphyll mixed water comapred to the west).
+'- Recuritment of Pacific cod in the Bering sea has been shown to be related to velocity - velocity was found to be a key correalte in some of the regions of differneitation as well as salinity. However, temperature was less so. 
+'- Pacific cod exhibit an isolation-by-distance differentitation. Furthermore, the EBS and AI stocks appear to have some low levels of gene flow, but the migration-selection balance is great in terms of local adaptation. There is likely some gene flow between the two populations because the allele frequencies were similar across most regions between EBS-AI except for some regions (islands), whereas the allele frequencies were almost 2x that when comparing EBS-WA. That is to say, they are similar enough that there is likely gene flow going on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Pacific cod are separate stocks between EBS, AI, western GOA, and eastern GOA. 
+'- The regions of genomic differnetiaton appear to be related to vision, which could be due to geogrpahic features of these respective areas (EBS = darker, AI = lighter). 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1270,6 +1317,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1312,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1400,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1787,9 +1850,9 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -29011,45 +29074,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
+      <c r="F1" s="7" t="s">
+        <v>154</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -29068,7 +29128,26 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29076,143 +29155,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.5" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -29280,7 +29222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -29346,4 +29288,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F4912-4F2B-9D4D-8EF1-23A5C054466B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Summaries/Paper + Book Summaries.xlsx
+++ b/Summaries/Paper + Book Summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/Comprehensive-Exam-Notes/Summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43563994-1E9C-DF48-A438-494D1EAD34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C747931-31CA-284B-B834-3AEA1D191A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="166">
   <si>
     <t>Section</t>
   </si>
@@ -899,12 +899,6 @@
 '- Fecundity is correlated with length (i.e., larger females = more eggs). In genearl, the average sized female (70 cm) caught by the fishery can produce around 200k eggs and the smallest females caught in the study (60cm) can produce about 60k eggs.                                  </t>
   </si>
   <si>
-    <t>- Most sablefish spawn around the continental slope and at depths exceeding 300m. Eggs tend to occupy the 400m depth range where hydrogrpahic conditions are fairly stable.                                         
-'- Larvae then emerge and seem to be advected offshore to further develop, before juveniles move back inshore and can occupy inshore areas for an extended duration before they migrate back into their spawning grounds.                                       
-'- In general, it seems like spawning takes place around late winter into early spring, peaking at around early spring.                             
-'- Juvenile sex-ratios appear to be held at about 50:50, although differential mortality by sex might impact this ratio.                             '- Eggs tend to be caught in Jan - Feb, while larvae are caught at around April, suggesting that there is some gestation period.</t>
-  </si>
-  <si>
     <t>- I think the life-history of Candian sablefish is fairly similar to AK fish, atlhough it seems like AK might have a larger spawning migration thatn is seen in this study.          
 '- Also, there seems to be an ontogenetic movement, where eggs will develop along the slope, larvae either get advected offshore or inshore, juveniles will end up inshore, and move back to offshore areas to spawn as they mature.</t>
   </si>
@@ -1258,6 +1252,61 @@
     <t xml:space="preserve">- Pacific cod are separate stocks between EBS, AI, western GOA, and eastern GOA. 
 '- The regions of genomic differnetiaton appear to be related to vision, which could be due to geogrpahic features of these respective areas (EBS = darker, AI = lighter). 
 </t>
+  </si>
+  <si>
+    <t>- Most sablefish spawn around the continental slope and at depths exceeding 300m. Eggs tend to occupy the 400m depth range where hydrogrpahic conditions are fairly stable.                                         
+'- Larvae then emerge and seem to be advected offshore to further develop, before juveniles move back inshore and can occupy inshore areas for an extended duration before they migrate back into their spawning grounds.                                       
+'- In general, it seems like spawning takes place around late winter into early spring, peaking at around early spring.                             
+'- Juvenile sex-ratios appear to be held at about 50:50, although differential mortality by sex might impact this ratio.                            
+'- Eggs tend to be caught in Jan - Feb, while larvae are caught at around April, suggesting that there is some gestation period.</t>
+  </si>
+  <si>
+    <t>Spies (2012) Landscape Genetics Reveals Population Subdivision in Bering Sea and Aleutian Islands Pacific Cod</t>
+  </si>
+  <si>
+    <t>- To look for population and sub-population structuring in Pacific cod along the EBS and AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Microsatellite loci to look at genetic differentiation (using 17 microsats). 
+'- Samples from AI chain, Bering Sea shelf, Neart Islands, Unimak Pass, and Pribilof Islands. 
+'- Power analysis to determine number of microsatellites that would be needed to determine genetic differentiation. 
+'- Compared/overlaid population and genetic structure onto physical barriers using a variety of methods: 1) Monmonier algorithim, 2) Wombling analysis, and 3) Mantel test (to look a isolation-by-distance patterns). </t>
+  </si>
+  <si>
+    <t>- Complex population structure is driven by migration, restricted gene flow, isolated reproduction. 
+'- Stock structure in management is important because of localized depletion and is required by the MSA to define management units as a function of biologicla, geogprahical, economic, techincal, and social factors. 
+'- Localized depletion can erode the stability of the stock (lower adaptability, compromised productivity, and higher risk of population loss). 
+'- For Pacific cod, there are many discrete and distinct spawning areas all throughout the BS and AI. 
+'- In Atlatnic cod, natal homing has been thought to be a significant factor in driving complex population structure. 
+'- For Pacific cod, there seems to be some evidence of natal spawning site fidelity. Temporally stable genetic structure implies limited diserpsal at all stages and likely some natal spawning fidelity. 
+'- Larval cod are pelagic, and thus are likely strongly influenced by current patterns, which could further drive population structure. 
+'- Movement by Pacific cod is generally thought to be about 260m, and deep passes could further inhibt this. 
+'- Differeneces in oceanography between BSAI could also drive these population structuring patterns. BS = single contintental shelf, whereas AI = volanci islands with a loit of passes with exchange of water. More ifnluenced by currents in the AI, and lots of difference in species composotion and prey avialbility. Clockwise circulation in the AI can also entrain larvae. 
+'- Deep passes and current passes likely influence cod dispersal and movement across all life-stages, resulting in differences in population structure. 
+'- Mature and immature fish were considered to be the same genetically. 
+'- The geographic tests for genetic differences generally found the same groupings. This inclduded: 1) the AI chain subgroup with some AI populaiton structure as well (some west of Amitchka pass), 2) a break between the AI and EBS, and 3) a potential break between Unimak and the Pribilofs (although this was variable).  
+'- The isolation by distance Mantel test also showed that there was more genetic differentiation are they were further out. 
+'- They also found some temporal instasbility over short time spans in genetic differntiation. 
+'- There is consistent evidence of non-panmaxia. Some major findings are: 1) genetic isolation-by-distance patterns, 2) differentiation is not continuous but is marked by physical geographical barriers - which occurs between the EBS and AI, 3) mean dispersla by generation is limited 100km, 4) passes are important for determining gene flow between EBS stocks and AI stocks (Amutka and Samalga Pass). 
+'- Samalga Pass is known for being a biophysical barrier - difference in species composition west and east of the pass. Species differences between the passes for Amutka as well. (species diet of Pcod also change east and west (east = pollock, west = Atka mack). 
+'- Genetic differentiation is a combinaition of present and historical events - namely the glacial maxima contracted habitat and forces Pcod to move south (GOA), following the recession of glaciers, Pcod expanded north resulting in EBS and AI stocks. 
+'- Differentiation between EBS and AI stocks could be due to founder effects iniitally (i.e., substock peeled out of main stock and oceangraophic conditions prevented them from homogenizing), or could have been panmicitic but over time they diverged because of limited gene flow. 
+'- Also potential structure betweehn Unimak and Pribilof Islands. However, there are no known tranistion zones here. Could be due to physical conditions as well as natla homing. 
+'- Flow in Unimak diverges into east and north - larvae west of Unimark will potentialyl diverge north and larvae on the shelf will go east. Also spawning timing could also influence these patterns (later on Pribilof because later ice oiff). 
+'- Also some sub structuring between Amitchka due to flow and pass and depth (west of Amichtka pass) has some evidence of divergence in allele frequency - potentially due to restrction in gene flow due to geopgrahical barriers. 
+'- Using the island model, approximately 9% of the biomass is is in AI and 91% in EBS. Given calculations of effective spawning biomass or population size, it estiamtes at 0.11% migration rate per generation - given the mean generation time is 6 years, this translates into less than 10% migration per year between EBS and AI - although a bit still occurs. 
+'- Passes and current patterns acting as barriers to gene flow is partially confirmed here. 
+'- Strong evidence of geogrpahic distance isolation suggesting low dispersal and limited gene flow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Strong structuring between EBS, AI, GOA, which could be due to historical and present day effects: founder effects from glacial maximia and subsequent onset of hydrographic conditions led to genetic differentiation. 
+'- Structuring in populations could potentially be attributed to: 1) deep passes and current patterns between the EBS and AI, and 2) larval dispersal and natal homing. 
+'- There is also some potential for subpopulation structuring among the AI and EBS contigent - (EBS: Unimak and Pribilofs as a result of current directions and potentialyl ice off dats limited spawn timing), (AI: West of Amitchka Pass substructuring due to current and flow velocity in those areas). 
+'-  Strong evidence of isoltion-by-distance patterns as well, suggesting limited realized dispersla and potential evidence for antal homing. 
+'- There also appears to be limtied migration rates based on the island model, hwoever, this could be a migration-selection balance, wherein the selection process is much greater than the mgiration rates. </t>
+  </si>
+  <si>
+    <t>- In terms of relevanace of stock structure, there is pretty clear evidence of genetic distinciveness between the EBS and AI stock, and as such, they should be managed separately. In addition to that, the EBS and AI stock have some sub-stock structuring (Unimak and Pribs, and west of Amchitka). This could potentially suggest even more localized depeltion of spawning populatiosn within a given management unit. Perhaps some fine-scale spatio-temporal models will help ebtter understand and be a better management tool for udnerstand these patterns, instead of using a box-transfer model, where data are even more limited. However, data limitiations apply here.</t>
   </si>
 </sst>
 </file>
@@ -1850,9 +1899,9 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2206,13 +2255,13 @@
         <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>101</v>
@@ -2238,25 +2287,25 @@
     </row>
     <row r="10" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -2279,25 +2328,25 @@
     </row>
     <row r="11" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -2320,25 +2369,25 @@
     </row>
     <row r="12" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2361,25 +2410,25 @@
     </row>
     <row r="13" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -2402,25 +2451,25 @@
     </row>
     <row r="14" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="G14" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -2443,25 +2492,25 @@
     </row>
     <row r="15" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -2484,25 +2533,25 @@
     </row>
     <row r="16" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>148</v>
+      <c r="D16" s="14" t="s">
+        <v>150</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="G16" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -29074,11 +29123,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29090,7 +29139,7 @@
     <col min="6" max="6" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -29107,7 +29156,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -29131,22 +29180,42 @@
     </row>
     <row r="2" spans="1:25" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>156</v>
+    </row>
+    <row r="3" spans="1:25" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>160</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>159</v>
+      <c r="B3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
